--- a/QuantLibXL/Data2/XLS/HUF/HUF_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/HUF/HUF_MainChecks.xlsx
@@ -11,10 +11,10 @@
   </sheets>
   <definedNames>
     <definedName name="Currency">MainChecks!$U$4</definedName>
-    <definedName name="FirstIndex">MainChecks!$K$10</definedName>
-    <definedName name="FuturesDates">MainChecks!$C$15:$C$18</definedName>
-    <definedName name="FuturesTable">MainChecks!$A$4:$H$13</definedName>
-    <definedName name="IMMFutures">MainChecks!$D$15:$D$18</definedName>
+    <definedName name="FirstIndex">MainChecks!$K$9</definedName>
+    <definedName name="FuturesDates">MainChecks!$C$18:$C$21</definedName>
+    <definedName name="FuturesTable">MainChecks!$A$4:$H$16</definedName>
+    <definedName name="IMMFutures">MainChecks!$D$18:$D$21</definedName>
     <definedName name="InterestRatesTrigger">MainChecks!#REF!</definedName>
     <definedName name="TenYearsBondFutures">MainChecks!$C$4:$C$6</definedName>
     <definedName name="Trigger">MainChecks!$U$2</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>ObjectID</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Shibor</t>
   </si>
   <si>
-    <t>FESM5</t>
-  </si>
-  <si>
     <t>Reference Date</t>
   </si>
   <si>
@@ -201,6 +198,33 @@
   </si>
   <si>
     <t>SEK</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>6W</t>
+  </si>
+  <si>
+    <t>Wibor</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>Bubor</t>
+  </si>
+  <si>
+    <t>Pribor</t>
+  </si>
+  <si>
+    <t>6PR</t>
   </si>
 </sst>
 </file>
@@ -586,7 +610,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -711,12 +735,6 @@
     <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
@@ -814,28 +832,22 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 11:39:13</v>
+        <v>Updated at 16:08:30</v>
         <stp/>
-        <stp>{ECF9DF6B-0672-49AD-8ECC-38DDB5B99D46}</stp>
-        <tr r="Q7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:43:52</v>
-        <stp/>
-        <stp>{F594E604-FDB5-41C4-BF9A-14FA01E85D86}</stp>
-        <tr r="Q5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:39:13</v>
-        <stp/>
-        <stp>{99A968F2-B5FA-4352-867E-FA87EB200125}</stp>
+        <stp>{8DAF427F-085D-4DD8-8873-B196EFCFBD5E}</stp>
         <tr r="Q6" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:39:13</v>
+        <v>Updated at 16:08:30</v>
         <stp/>
-        <stp>{5FA98E0A-FD83-48BC-87B4-0D027BC36783}</stp>
-        <tr r="P7" s="2"/>
+        <stp>{57D3DCA2-0DE7-4663-A1BF-059796283671}</stp>
+        <tr r="P6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 16:09:10</v>
+        <stp/>
+        <stp>{21E3F4CC-73E9-486D-814F-684050483E7C}</stp>
+        <tr r="Q5" s="2"/>
       </tp>
     </main>
   </volType>
@@ -1227,7 +1239,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ103"/>
+  <dimension ref="A1:AJ106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
@@ -1322,7 +1334,9 @@
       <c r="T2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="18">
+        <v>42111.672199074077</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1431,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1484,14 +1498,14 @@
         <v>42163</v>
       </c>
       <c r="M5" s="28">
-        <v>159.67000000000002</v>
+        <v>160.4</v>
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="29" t="str">
         <f>_xll.RData(K5,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L5)</f>
-        <v>Updated at 11:43:52</v>
+        <v>Updated at 16:09:10</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>11</v>
@@ -1547,21 +1561,30 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="58">
-        <v>42170</v>
-      </c>
-      <c r="M6" s="59">
-        <v>100.92</v>
-      </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="K6" s="23" t="str">
+        <f>Currency&amp;VLOOKUP(Currency,FuturesTable,5,0)&amp;VLOOKUP(Currency,FuturesTable,6,0)&amp;"10Y"</f>
+        <v>HUFAB6B10Y</v>
+      </c>
+      <c r="L6" s="24">
+        <v>42111</v>
+      </c>
+      <c r="M6" s="33" t="str">
+        <f>N6&amp;"/"&amp;O6</f>
+        <v>2.63/2.69</v>
+      </c>
+      <c r="N6" s="30">
+        <v>2.6300000000000003</v>
+      </c>
+      <c r="O6" s="30">
+        <v>2.69</v>
+      </c>
+      <c r="P6" s="30" t="str">
+        <f>_xll.RData(K6&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N6)</f>
+        <v>Updated at 16:08:30</v>
+      </c>
       <c r="Q6" s="31" t="str">
-        <f>_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 11:39:13</v>
+        <f>_xll.RData(K6&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L6)</f>
+        <v>Updated at 16:08:30</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>11</v>
@@ -1572,7 +1595,7 @@
       </c>
       <c r="U6" s="11">
         <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1590,7 +1613,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>17</v>
       </c>
@@ -1616,32 +1639,16 @@
         <v>35</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="23" t="str">
-        <f>Currency&amp;VLOOKUP(Currency,FuturesTable,5,0)&amp;VLOOKUP(Currency,FuturesTable,6,0)&amp;"10Y"</f>
-        <v>CHFAB3L10Y</v>
-      </c>
-      <c r="L7" s="24">
-        <v>42109</v>
-      </c>
-      <c r="M7" s="33" t="str">
-        <f>N7&amp;"/"&amp;O7</f>
-        <v>-0.075/0.005</v>
-      </c>
-      <c r="N7" s="30">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="O7" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P7" s="30" t="str">
-        <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 11:39:13</v>
-      </c>
-      <c r="Q7" s="31" t="str">
-        <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 11:39:13</v>
-      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1671,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>18</v>
       </c>
@@ -1691,15 +1698,23 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
+      <c r="K8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="R8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1749,22 +1764,23 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="21" t="str">
+        <f>VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
+        <v>Bubor6M</v>
+      </c>
+      <c r="L9" s="22" t="e">
+        <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" s="32">
         <v>0</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="17" t="s">
-        <v>10</v>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="34" t="str">
+        <f ca="1">IF(AND(ISERROR(L9),ISERROR(M9)),_xll.ohRangeRetrieveError(L9)&amp;" "&amp;_xll.ohRangeRetrieveError(M9),IF(ISERROR(L9),_xll.ohRangeRetrieveError(L9),_xll.ohRangeRetrieveError(M9)))</f>
+        <v>qlLastFixingQuoteReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'Bubor6MLastFixing_Quote'</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>11</v>
@@ -1815,23 +1831,23 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="21" t="str">
-        <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
-        <v>ChfLibor3M</v>
-      </c>
-      <c r="L10" s="22">
-        <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>42108</v>
-      </c>
-      <c r="M10" s="32">
+      <c r="K10" s="23" t="str">
+        <f>UPPER(Currency)&amp;"STD"</f>
+        <v>HUFSTD</v>
+      </c>
+      <c r="L10" s="24" t="e">
+        <f>_xll.qlTermStructureReferenceDate(K10,Trigger)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" s="25">
         <v>0</v>
       </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="34" t="str">
-        <f>IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
-        <v/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="35" t="str">
+        <f ca="1">IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10))</f>
+        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'HUFSTD'</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>11</v>
@@ -1883,8 +1899,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="7"/>
       <c r="K11" s="23" t="str">
-        <f>UPPER(Currency)&amp;"STD"</f>
-        <v>CHFSTD</v>
+        <f>UPPER(Currency)&amp;"ON"</f>
+        <v>HUFON</v>
       </c>
       <c r="L11" s="24" t="e">
         <f>_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
@@ -1898,7 +1914,7 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="35" t="str">
         <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
-        <v>qlTermStructureReferenceDate - empty Handle cannot be dereferenced</v>
+        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'HUFON'</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>11</v>
@@ -1924,24 +1940,24 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="58" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -1950,8 +1966,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
       <c r="K12" s="23" t="str">
-        <f>UPPER(Currency)&amp;"ON"</f>
-        <v>CHFON</v>
+        <f>UPPER(Currency)&amp;"1M"</f>
+        <v>HUF1M</v>
       </c>
       <c r="L12" s="24" t="e">
         <f>_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
@@ -1963,9 +1979,9 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="35" t="str">
+      <c r="Q12" s="36" t="str">
         <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
-        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'CHFON'</v>
+        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'HUF1M'</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>11</v>
@@ -1989,36 +2005,36 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="55" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>34</v>
+      <c r="H13" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
       <c r="K13" s="23" t="str">
-        <f>UPPER(Currency)&amp;"1M"</f>
-        <v>CHF1M</v>
+        <f>UPPER(Currency)&amp;"3M"</f>
+        <v>HUF3M</v>
       </c>
       <c r="L13" s="24" t="e">
         <f>_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
@@ -2032,7 +2048,7 @@
       <c r="P13" s="25"/>
       <c r="Q13" s="36" t="str">
         <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
-        <v>qlTermStructureReferenceDate - empty Handle cannot be dereferenced</v>
+        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'HUF3M'</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>11</v>
@@ -2056,20 +2072,36 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="7"/>
       <c r="K14" s="23" t="str">
-        <f>UPPER(Currency)&amp;"3M"</f>
-        <v>CHF3M</v>
+        <f>UPPER(Currency)&amp;"6M"</f>
+        <v>HUF6M</v>
       </c>
       <c r="L14" s="24" t="e">
         <f>_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
@@ -2083,7 +2115,7 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="36" t="str">
         <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
-        <v>qlTermStructureReferenceDate - empty Handle cannot be dereferenced</v>
+        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'HUF6M'</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>11</v>
@@ -2108,41 +2140,49 @@
       <c r="AJ14" s="3"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="37">
-        <f t="array" ref="C15:C18">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B15:B18)</f>
-        <v>42172</v>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f t="array" ref="D15:D18">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
-        <v>FESM5</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="23" t="str">
-        <f>UPPER(Currency)&amp;"6M"</f>
-        <v>CHF6M</v>
+      <c r="K15" s="43" t="str">
+        <f>UPPER(Currency)&amp;"1Y"</f>
+        <v>HUF1Y</v>
       </c>
       <c r="L15" s="24" t="e">
         <f>_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="44">
         <v>0</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="36" t="str">
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45" t="str">
         <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
-        <v>qlTermStructureReferenceDate - empty Handle cannot be dereferenced</v>
+        <v>qlTermStructureReferenceDate - ObjectHandler error: attempt to retrieve object with unknown ID 'HUF1Y'</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>11</v>
@@ -2166,42 +2206,41 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="38">
-        <v>42263</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <v>FESU5</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+    <row r="16" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>34</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="43" t="str">
-        <f>UPPER(Currency)&amp;"1Y"</f>
-        <v>CHF1Y</v>
-      </c>
-      <c r="L16" s="24" t="e">
-        <f>_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M16" s="44">
-        <v>0</v>
-      </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="45" t="str">
-        <f ca="1">IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
-        <v>qlTermStructureReferenceDate - empty Handle cannot be dereferenced</v>
-      </c>
-      <c r="R16" s="8" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="S16" s="1"/>
@@ -2225,31 +2264,23 @@
     </row>
     <row r="17" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="38">
-        <v>42354</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <v>FESZ5</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2269,16 +2300,18 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="41" t="b">
+      <c r="B18" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="39">
-        <v>42445</v>
-      </c>
-      <c r="D18" s="10" t="str">
-        <v>FESH6</v>
+      <c r="C18" s="37">
+        <f t="array" ref="C18:C21">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B18:B21)</f>
+        <v>42172</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="array" ref="D18:D21">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
+        <v>-M5</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2315,9 +2348,15 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="38">
+        <v>42263</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <v>-U5</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2353,9 +2392,15 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38">
+        <v>42354</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <v>-Z5</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2389,11 +2434,17 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>42445</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <v>-H6</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3167,7 +3218,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="R41" s="3"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -3197,14 +3248,14 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -5401,15 +5452,15 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
@@ -5438,8 +5489,25 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
     </row>
     <row r="102" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -5451,23 +5519,50 @@
       <c r="R102" s="2"/>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
-      <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH,HKD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>IMMFutures</formula1>
+      <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH,HKD,RMB,SEK,PLN,HUF,CZK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
